--- a/RESULTS DATA/MILD-MASTER Behavior Files/mild-master.xlsx
+++ b/RESULTS DATA/MILD-MASTER Behavior Files/mild-master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\MILD-Master\RESULTS DATA\MILD-MASTER Behavior Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D38D6-A813-4005-B7C6-F05B187A3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0350F3-A7EE-4CB4-9274-D3875D8111A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBA968E3-47EF-482E-A8E4-26D5060FA023}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{BBA968E3-47EF-482E-A8E4-26D5060FA023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="894">
   <si>
     <t>side=l_itd=400_az=0_mag=0</t>
   </si>
@@ -2568,6 +2568,156 @@
   </si>
   <si>
     <t>stim/mild-master/s_itdpilot_4_5/side=l_itd=50_az=0_mag=0/20__side=l_itd=50_az=0_mag=0__l=dash-dash-gash-dash-dash-bash-gash-gash-bash-gash-gash-dash__r=dash-bash-dash-gash-bash-dash-bash-dash-gash-bash-gash-dash.wav</t>
+  </si>
+  <si>
+    <t>itd_pilot5</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/0__side=r_itd=200_az=0_mag=0__l=dash-dash-gash-dash-gash-gash-bash-dash-bash-dash-dash-gash__r=gash-bash-dash-gash-gash-bash-dash-dash-dash-bash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/0__side=r_itd=100_az=0_mag=0__l=gash-dash-dash-gash-dash-bash-dash-dash-gash-dash-dash-bash__r=dash-bash-gash-bash-gash-dash-dash-dash-bash-gash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/0__side=l_itd=50_az=0_mag=0__l=gash-dash-bash-dash-dash-dash-gash-gash-dash-gash-bash-dash__r=gash-bash-gash-gash-gash-dash-bash-dash-bash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/0__side=l_itd=200_az=0_mag=0__l=dash-dash-gash-dash-bash-dash-gash-dash-dash-gash-bash-dash__r=gash-dash-dash-bash-dash-bash-dash-dash-dash-bash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/0__side=l_itd=100_az=0_mag=0__l=gash-dash-dash-dash-gash-bash-dash-gash-dash-gash-bash-dash__r=dash-dash-bash-gash-bash-dash-dash-dash-bash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/0__side=l_itd=400_az=0_mag=0__l=dash-gash-dash-gash-dash-bash-dash-bash-gash-gash-bash-dash__r=gash-dash-bash-dash-bash-dash-gash-dash-dash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/0__side=r_itd=50_az=0_mag=0__l=dash-dash-gash-dash-dash-bash-gash-gash-gash-gash-gash-bash__r=gash-bash-gash-gash-bash-gash-dash-dash-bash-gash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/0__side=r_itd=400_az=0_mag=0__l=dash-dash-dash-gash-dash-gash-gash-gash-bash-gash-gash-bash__r=dash-dash-gash-bash-gash-bash-dash-bash-dash-gash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/10__side=r_itd=50_az=0_mag=0__l=gash-gash-gash-gash-bash-dash-gash-gash-dash-bash-dash-gash__r=dash-dash-bash-gash-gash-bash-dash-gash-bash-dash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/10__side=l_itd=400_az=0_mag=0__l=dash-dash-gash-bash-dash-gash-dash-bash-dash-gash-dash-dash__r=dash-bash-dash-gash-gash-dash-bash-dash-bash-gash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/10__side=l_itd=50_az=0_mag=0__l=gash-gash-dash-gash-dash-dash-bash-dash-gash-gash-bash-gash__r=gash-bash-dash-bash-gash-gash-dash-gash-bash-dash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/10__side=r_itd=200_az=0_mag=0__l=gash-dash-gash-bash-gash-dash-dash-bash-dash-gash-dash-bash__r=dash-bash-gash-dash-bash-gash-gash-dash-bash-dash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/10__side=l_itd=100_az=0_mag=0__l=dash-gash-gash-gash-gash-gash-gash-gash-bash-gash-bash-dash__r=gash-bash-gash-bash-gash-dash-bash-dash-dash-bash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/10__side=r_itd=100_az=0_mag=0__l=gash-gash-bash-gash-dash-gash-gash-gash-dash-gash-bash-gash__r=gash-bash-gash-gash-bash-gash-bash-gash-gash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/10__side=l_itd=200_az=0_mag=0__l=gash-gash-bash-gash-gash-gash-gash-gash-dash-bash-gash-gash__r=gash-bash-dash-dash-bash-gash-bash-gash-bash-gash-dash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/10__side=r_itd=400_az=0_mag=0__l=dash-gash-gash-gash-bash-dash-dash-gash-dash-bash-dash-gash__r=gash-bash-gash-bash-dash-dash-gash-bash-gash-gash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/11__side=r_itd=50_az=0_mag=0__l=dash-bash-gash-gash-gash-dash-dash-bash-dash-bash-gash-dash__r=gash-dash-gash-dash-gash-bash-dash-gash-bash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/11__side=r_itd=100_az=0_mag=0__l=gash-dash-dash-bash-gash-dash-gash-dash-dash-dash-dash-bash__r=gash-bash-dash-gash-dash-dash-bash-dash-bash-dash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/11__side=l_itd=50_az=0_mag=0__l=dash-dash-dash-gash-dash-gash-bash-dash-dash-bash-gash-gash__r=dash-bash-gash-dash-dash-bash-dash-bash-gash-gash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/11__side=r_itd=400_az=0_mag=0__l=gash-dash-dash-gash-gash-dash-dash-dash-bash-gash-bash-dash__r=dash-bash-gash-bash-dash-bash-dash-dash-dash-bash-gash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/11__side=l_itd=400_az=0_mag=0__l=gash-bash-dash-dash-bash-dash-dash-dash-dash-dash-gash-gash__r=dash-dash-dash-bash-gash-bash-gash-bash-gash-gash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/11__side=l_itd=100_az=0_mag=0__l=dash-dash-dash-bash-dash-dash-bash-gash-gash-gash-dash-dash__r=dash-bash-gash-dash-gash-bash-dash-gash-dash-bash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/11__side=l_itd=200_az=0_mag=0__l=gash-gash-dash-dash-bash-dash-dash-gash-bash-dash-dash-dash__r=gash-bash-gash-bash-dash-bash-gash-dash-gash-dash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/11__side=r_itd=200_az=0_mag=0__l=dash-gash-dash-dash-dash-gash-bash-dash-bash-dash-dash-bash__r=gash-bash-gash-dash-bash-gash-gash-bash-gash-gash-gash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/12__side=l_itd=200_az=0_mag=0__l=gash-bash-dash-bash-gash-gash-dash-dash-dash-dash-gash-bash__r=dash-dash-gash-dash-bash-gash-bash-gash-bash-dash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/12__side=r_itd=400_az=0_mag=0__l=gash-dash-dash-dash-dash-gash-bash-dash-gash-bash-gash-gash__r=gash-bash-dash-gash-dash-bash-dash-bash-gash-gash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/12__side=r_itd=200_az=0_mag=0__l=dash-dash-gash-gash-bash-dash-gash-bash-dash-dash-dash-gash__r=dash-bash-gash-bash-dash-dash-gash-gash-bash-dash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/12__side=l_itd=100_az=0_mag=0__l=gash-dash-dash-bash-gash-bash-gash-dash-dash-bash-dash-dash__r=dash-gash-bash-dash-bash-dash-gash-dash-dash-dash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/12__side=l_itd=50_az=0_mag=0__l=dash-dash-dash-dash-dash-bash-gash-gash-gash-gash-dash-bash__r=gash-bash-dash-dash-bash-dash-dash-bash-dash-bash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/12__side=l_itd=400_az=0_mag=0__l=gash-gash-gash-gash-bash-dash-dash-dash-gash-gash-bash-gash__r=gash-bash-dash-bash-dash-dash-dash-gash-bash-dash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/12__side=r_itd=50_az=0_mag=0__l=dash-bash-gash-gash-bash-gash-dash-dash-bash-gash-gash-dash__r=gash-gash-bash-gash-gash-bash-dash-bash-dash-gash-gash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/12__side=r_itd=100_az=0_mag=0__l=dash-gash-gash-gash-gash-gash-dash-bash-gash-gash-dash-bash__r=dash-bash-gash-bash-gash-bash-gash-dash-bash-dash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/13__side=l_itd=200_az=0_mag=0__l=gash-dash-bash-gash-gash-gash-gash-dash-bash-gash-gash-dash__r=dash-bash-dash-bash-gash-dash-bash-gash-gash-dash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/13__side=r_itd=100_az=0_mag=0__l=dash-dash-dash-bash-gash-dash-bash-gash-dash-dash-bash-gash__r=dash-dash-gash-dash-dash-bash-gash-gash-dash-bash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/13__side=l_itd=100_az=0_mag=0__l=dash-dash-gash-dash-bash-gash-gash-dash-gash-bash-dash-gash__r=dash-gash-dash-bash-dash-dash-bash-dash-bash-gash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/13__side=r_itd=50_az=0_mag=0__l=dash-dash-gash-dash-bash-gash-bash-dash-bash-gash-gash-gash__r=dash-bash-dash-bash-dash-bash-dash-dash-gash-dash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/13__side=r_itd=400_az=0_mag=0__l=dash-dash-bash-dash-gash-bash-dash-gash-gash-gash-dash-gash__r=gash-bash-dash-bash-dash-gash-bash-dash-gash-bash-gash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/13__side=r_itd=200_az=0_mag=0__l=gash-bash-gash-dash-dash-gash-gash-dash-gash-bash-dash-gash__r=gash-gash-bash-gash-bash-gash-gash-bash-gash-gash-bash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/13__side=l_itd=50_az=0_mag=0__l=gash-gash-gash-dash-gash-bash-gash-gash-dash-dash-dash-bash__r=gash-dash-bash-gash-bash-dash-dash-bash-dash-gash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/13__side=l_itd=400_az=0_mag=0__l=gash-dash-gash-bash-gash-dash-gash-dash-gash-dash-bash-dash__r=gash-dash-bash-dash-dash-bash-gash-gash-gash-bash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=50_az=0_mag=0/14__side=l_itd=50_az=0_mag=0__l=dash-dash-gash-bash-gash-gash-dash-gash-dash-bash-gash-gash__r=gash-dash-bash-dash-gash-gash-bash-gash-bash-gash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=200_az=0_mag=0/14__side=r_itd=200_az=0_mag=0__l=dash-bash-gash-bash-gash-bash-dash-dash-dash-dash-gash-gash__r=dash-dash-gash-gash-bash-dash-gash-dash-bash-gash-bash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=400_az=0_mag=0/14__side=r_itd=400_az=0_mag=0__l=dash-bash-gash-dash-bash-dash-dash-dash-dash-bash-dash-dash__r=dash-gash-gash-gash-dash-bash-dash-dash-bash-dash-gash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/14__side=r_itd=100_az=0_mag=0__l=dash-gash-bash-dash-bash-dash-gash-dash-dash-dash-gash-dash__r=dash-gash-dash-bash-dash-dash-bash-dash-bash-gash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=200_az=0_mag=0/14__side=l_itd=200_az=0_mag=0__l=dash-gash-dash-dash-bash-gash-dash-dash-bash-dash-gash-dash__r=dash-gash-bash-dash-gash-dash-bash-dash-gash-bash-dash-bash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=100_az=0_mag=0/14__side=l_itd=100_az=0_mag=0__l=gash-gash-gash-gash-dash-bash-dash-bash-dash-dash-gash-gash__r=dash-gash-bash-gash-bash-gash-bash-dash-dash-bash-dash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=l_itd=400_az=0_mag=0/14__side=l_itd=400_az=0_mag=0__l=gash-dash-dash-gash-dash-bash-gash-gash-bash-dash-gash-bash__r=dash-bash-gash-dash-bash-dash-dash-gash-dash-bash-dash-dash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=50_az=0_mag=0/14__side=r_itd=50_az=0_mag=0__l=dash-gash-gash-gash-gash-dash-bash-dash-gash-gash-bash-dash__r=gash-bash-dash-dash-bash-gash-dash-bash-dash-bash-gash-gash.wav</t>
+  </si>
+  <si>
+    <t>stim/mild-master/s_itd_pilot5/side=r_itd=100_az=0_mag=0/15__side=r_itd=100_az=0_mag=0__l=gash-dash-gash-bash-dash-bash-gash-dash-gash-dash-gash-dash__r=gash-gash-bash-gash-bash-gash-dash-gash-gash-bash-dash-bash.wav</t>
   </si>
 </sst>
 </file>
@@ -2940,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01819385-1755-4293-8215-3EE7DFB16A52}">
-  <dimension ref="A1:N824"/>
+  <dimension ref="A1:N915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
+      <selection activeCell="E828" sqref="E828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29852,7 +30002,7 @@
         <v>9913.4021589998101</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>743</v>
       </c>
@@ -29878,7 +30028,7 @@
         <v>3488.7174960006901</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>743</v>
       </c>
@@ -29907,7 +30057,7 @@
         <v>9298.5556820007005</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>743</v>
       </c>
@@ -29936,7 +30086,7 @@
         <v>5013.9250670000902</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>743</v>
       </c>
@@ -29968,7 +30118,7 @@
         <v>9945.2149900002405</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>743</v>
       </c>
@@ -30003,7 +30153,7 @@
         <v>10995.5500340005</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>743</v>
       </c>
@@ -30032,7 +30182,7 @@
         <v>9777.7608949998394</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>743</v>
       </c>
@@ -30061,7 +30211,7 @@
         <v>9036.3876430001092</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>743</v>
       </c>
@@ -30091,6 +30241,2810 @@
       </c>
       <c r="J824">
         <v>8513.0716009996795</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>844</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+      <c r="C825" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825">
+        <v>6</v>
+      </c>
+      <c r="F825" t="s">
+        <v>4</v>
+      </c>
+      <c r="G825" t="s">
+        <v>845</v>
+      </c>
+      <c r="H825">
+        <v>2548.2430360019198</v>
+      </c>
+      <c r="I825">
+        <v>6046.9018109887802</v>
+      </c>
+      <c r="J825">
+        <v>8142.4772870093502</v>
+      </c>
+      <c r="K825">
+        <v>9305.96435600519</v>
+      </c>
+      <c r="L825">
+        <v>10816.5181349962</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>844</v>
+      </c>
+      <c r="B826">
+        <v>2</v>
+      </c>
+      <c r="C826" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D826">
+        <v>2</v>
+      </c>
+      <c r="E826">
+        <v>1</v>
+      </c>
+      <c r="F826" t="s">
+        <v>3</v>
+      </c>
+      <c r="G826" t="s">
+        <v>846</v>
+      </c>
+      <c r="H826">
+        <v>2743.0755650103001</v>
+      </c>
+      <c r="I826">
+        <v>8078.9536550045004</v>
+      </c>
+      <c r="J826">
+        <v>10254.927676022</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>844</v>
+      </c>
+      <c r="B827">
+        <v>3</v>
+      </c>
+      <c r="C827" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D827">
+        <v>3</v>
+      </c>
+      <c r="E827">
+        <v>2</v>
+      </c>
+      <c r="F827" t="s">
+        <v>7</v>
+      </c>
+      <c r="G827" t="s">
+        <v>847</v>
+      </c>
+      <c r="H827">
+        <v>3378.9319129884202</v>
+      </c>
+      <c r="I827">
+        <v>6587.0480529963897</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>844</v>
+      </c>
+      <c r="B828">
+        <v>4</v>
+      </c>
+      <c r="C828" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D828">
+        <v>4</v>
+      </c>
+      <c r="E828">
+        <v>4</v>
+      </c>
+      <c r="F828" t="s">
+        <v>6</v>
+      </c>
+      <c r="G828" t="s">
+        <v>848</v>
+      </c>
+      <c r="H828">
+        <v>4899.84810401499</v>
+      </c>
+      <c r="I828">
+        <v>7675.75383602082</v>
+      </c>
+      <c r="J828">
+        <v>9763.78856100142</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>844</v>
+      </c>
+      <c r="B829">
+        <v>5</v>
+      </c>
+      <c r="C829" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D829">
+        <v>5</v>
+      </c>
+      <c r="E829">
+        <v>3</v>
+      </c>
+      <c r="F829" t="s">
+        <v>5</v>
+      </c>
+      <c r="G829" t="s">
+        <v>849</v>
+      </c>
+      <c r="H829">
+        <v>5859.0209430158102</v>
+      </c>
+      <c r="I829">
+        <v>8978.8227310031598</v>
+      </c>
+      <c r="J829">
+        <v>10250.996111005499</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>844</v>
+      </c>
+      <c r="B830">
+        <v>6</v>
+      </c>
+      <c r="C830" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D830">
+        <v>6</v>
+      </c>
+      <c r="E830">
+        <v>8</v>
+      </c>
+      <c r="F830" t="s">
+        <v>0</v>
+      </c>
+      <c r="G830" t="s">
+        <v>850</v>
+      </c>
+      <c r="H830">
+        <v>7277.8877449929696</v>
+      </c>
+      <c r="I830">
+        <v>9696.0756510049105</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>844</v>
+      </c>
+      <c r="B831">
+        <v>7</v>
+      </c>
+      <c r="C831" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D831">
+        <v>7</v>
+      </c>
+      <c r="E831">
+        <v>7</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1</v>
+      </c>
+      <c r="G831" t="s">
+        <v>851</v>
+      </c>
+      <c r="H831">
+        <v>4948.8795929998096</v>
+      </c>
+      <c r="I831">
+        <v>8484.6631259918195</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>844</v>
+      </c>
+      <c r="B832">
+        <v>8</v>
+      </c>
+      <c r="C832" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D832">
+        <v>8</v>
+      </c>
+      <c r="E832">
+        <v>5</v>
+      </c>
+      <c r="F832" t="s">
+        <v>2</v>
+      </c>
+      <c r="G832" t="s">
+        <v>852</v>
+      </c>
+      <c r="H832">
+        <v>3439.8672850131902</v>
+      </c>
+      <c r="I832">
+        <v>4239.8940230160897</v>
+      </c>
+      <c r="J832">
+        <v>7847.7542980015196</v>
+      </c>
+      <c r="K832">
+        <v>9791.8504310101198</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>844</v>
+      </c>
+      <c r="B833">
+        <v>9</v>
+      </c>
+      <c r="C833" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D833">
+        <v>9</v>
+      </c>
+      <c r="E833">
+        <v>7</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1</v>
+      </c>
+      <c r="G833" t="s">
+        <v>853</v>
+      </c>
+      <c r="H833">
+        <v>3735.8923869877999</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>844</v>
+      </c>
+      <c r="B834">
+        <v>10</v>
+      </c>
+      <c r="C834" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D834">
+        <v>10</v>
+      </c>
+      <c r="E834">
+        <v>8</v>
+      </c>
+      <c r="F834" t="s">
+        <v>0</v>
+      </c>
+      <c r="G834" t="s">
+        <v>854</v>
+      </c>
+      <c r="H834">
+        <v>4267.9392009973499</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>844</v>
+      </c>
+      <c r="B835">
+        <v>11</v>
+      </c>
+      <c r="C835" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D835">
+        <v>11</v>
+      </c>
+      <c r="E835">
+        <v>2</v>
+      </c>
+      <c r="F835" t="s">
+        <v>7</v>
+      </c>
+      <c r="G835" t="s">
+        <v>855</v>
+      </c>
+      <c r="H835">
+        <v>8167.2624490112003</v>
+      </c>
+      <c r="I835">
+        <v>10656.3131459951</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>844</v>
+      </c>
+      <c r="B836">
+        <v>12</v>
+      </c>
+      <c r="C836" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D836">
+        <v>12</v>
+      </c>
+      <c r="E836">
+        <v>6</v>
+      </c>
+      <c r="F836" t="s">
+        <v>4</v>
+      </c>
+      <c r="G836" t="s">
+        <v>856</v>
+      </c>
+      <c r="H836">
+        <v>2707.6112739741802</v>
+      </c>
+      <c r="I836">
+        <v>8147.5497069805797</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>844</v>
+      </c>
+      <c r="B837">
+        <v>13</v>
+      </c>
+      <c r="C837" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D837">
+        <v>13</v>
+      </c>
+      <c r="E837">
+        <v>3</v>
+      </c>
+      <c r="F837" t="s">
+        <v>5</v>
+      </c>
+      <c r="G837" t="s">
+        <v>857</v>
+      </c>
+      <c r="H837">
+        <v>8287.0293650030999</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>844</v>
+      </c>
+      <c r="B838">
+        <v>14</v>
+      </c>
+      <c r="C838" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D838">
+        <v>14</v>
+      </c>
+      <c r="E838">
+        <v>1</v>
+      </c>
+      <c r="F838" t="s">
+        <v>3</v>
+      </c>
+      <c r="G838" t="s">
+        <v>858</v>
+      </c>
+      <c r="H838">
+        <v>4985.4697339832701</v>
+      </c>
+      <c r="I838">
+        <v>9745.4292939901297</v>
+      </c>
+      <c r="J838">
+        <v>10889.3804579973</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>844</v>
+      </c>
+      <c r="B839">
+        <v>15</v>
+      </c>
+      <c r="C839" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D839">
+        <v>15</v>
+      </c>
+      <c r="E839">
+        <v>4</v>
+      </c>
+      <c r="F839" t="s">
+        <v>6</v>
+      </c>
+      <c r="G839" t="s">
+        <v>859</v>
+      </c>
+      <c r="H839">
+        <v>8194.0872130095904</v>
+      </c>
+      <c r="I839">
+        <v>9321.9609990119898</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>844</v>
+      </c>
+      <c r="B840">
+        <v>16</v>
+      </c>
+      <c r="C840" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D840">
+        <v>16</v>
+      </c>
+      <c r="E840">
+        <v>5</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2</v>
+      </c>
+      <c r="G840" t="s">
+        <v>860</v>
+      </c>
+      <c r="H840">
+        <v>2659.2023679911999</v>
+      </c>
+      <c r="I840">
+        <v>4294.2388689965001</v>
+      </c>
+      <c r="J840">
+        <v>7446.2500189989796</v>
+      </c>
+      <c r="K840">
+        <v>10639.7947739958</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>844</v>
+      </c>
+      <c r="B841">
+        <v>17</v>
+      </c>
+      <c r="C841" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D841">
+        <v>17</v>
+      </c>
+      <c r="E841">
+        <v>7</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1</v>
+      </c>
+      <c r="G841" t="s">
+        <v>861</v>
+      </c>
+      <c r="H841">
+        <v>2798.12413598597</v>
+      </c>
+      <c r="I841">
+        <v>9141.7173769920992</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>844</v>
+      </c>
+      <c r="B842">
+        <v>18</v>
+      </c>
+      <c r="C842" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D842">
+        <v>18</v>
+      </c>
+      <c r="E842">
+        <v>1</v>
+      </c>
+      <c r="F842" t="s">
+        <v>3</v>
+      </c>
+      <c r="G842" t="s">
+        <v>862</v>
+      </c>
+      <c r="H842">
+        <v>2623.4784689992598</v>
+      </c>
+      <c r="I842">
+        <v>8303.4132279902697</v>
+      </c>
+      <c r="J842">
+        <v>9867.4531030058806</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>844</v>
+      </c>
+      <c r="B843">
+        <v>19</v>
+      </c>
+      <c r="C843" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D843">
+        <v>19</v>
+      </c>
+      <c r="E843">
+        <v>2</v>
+      </c>
+      <c r="F843" t="s">
+        <v>7</v>
+      </c>
+      <c r="G843" t="s">
+        <v>863</v>
+      </c>
+      <c r="H843">
+        <v>5921.4545169919702</v>
+      </c>
+      <c r="I843">
+        <v>7041.3362629860603</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>844</v>
+      </c>
+      <c r="B844">
+        <v>20</v>
+      </c>
+      <c r="C844" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D844">
+        <v>20</v>
+      </c>
+      <c r="E844">
+        <v>5</v>
+      </c>
+      <c r="F844" t="s">
+        <v>2</v>
+      </c>
+      <c r="G844" t="s">
+        <v>864</v>
+      </c>
+      <c r="H844">
+        <v>3760.4756020009499</v>
+      </c>
+      <c r="I844">
+        <v>6616.3999139964499</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+      <c r="B845">
+        <v>21</v>
+      </c>
+      <c r="C845" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D845">
+        <v>21</v>
+      </c>
+      <c r="E845">
+        <v>8</v>
+      </c>
+      <c r="F845" t="s">
+        <v>0</v>
+      </c>
+      <c r="G845" t="s">
+        <v>865</v>
+      </c>
+      <c r="H845">
+        <v>2743.7468790113899</v>
+      </c>
+      <c r="I845">
+        <v>5235.1636610031101</v>
+      </c>
+      <c r="J845">
+        <v>10999.8867900073</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <v>22</v>
+      </c>
+      <c r="C846" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D846">
+        <v>22</v>
+      </c>
+      <c r="E846">
+        <v>3</v>
+      </c>
+      <c r="F846" t="s">
+        <v>5</v>
+      </c>
+      <c r="G846" t="s">
+        <v>866</v>
+      </c>
+      <c r="H846">
+        <v>3238.7755880057798</v>
+      </c>
+      <c r="I846">
+        <v>4443.6184120029202</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>844</v>
+      </c>
+      <c r="B847">
+        <v>23</v>
+      </c>
+      <c r="C847" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D847">
+        <v>23</v>
+      </c>
+      <c r="E847">
+        <v>4</v>
+      </c>
+      <c r="F847" t="s">
+        <v>6</v>
+      </c>
+      <c r="G847" t="s">
+        <v>867</v>
+      </c>
+      <c r="H847">
+        <v>2770.5631189793298</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>844</v>
+      </c>
+      <c r="B848">
+        <v>24</v>
+      </c>
+      <c r="C848" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D848">
+        <v>24</v>
+      </c>
+      <c r="E848">
+        <v>6</v>
+      </c>
+      <c r="F848" t="s">
+        <v>4</v>
+      </c>
+      <c r="G848" t="s">
+        <v>868</v>
+      </c>
+      <c r="H848">
+        <v>3038.0621500164202</v>
+      </c>
+      <c r="I848">
+        <v>7577.0855650007697</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>844</v>
+      </c>
+      <c r="B849">
+        <v>25</v>
+      </c>
+      <c r="C849" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D849">
+        <v>25</v>
+      </c>
+      <c r="E849">
+        <v>4</v>
+      </c>
+      <c r="F849" t="s">
+        <v>6</v>
+      </c>
+      <c r="G849" t="s">
+        <v>869</v>
+      </c>
+      <c r="H849">
+        <v>10881.209479004099</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>844</v>
+      </c>
+      <c r="B850">
+        <v>26</v>
+      </c>
+      <c r="C850" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D850">
+        <v>26</v>
+      </c>
+      <c r="E850">
+        <v>5</v>
+      </c>
+      <c r="F850" t="s">
+        <v>2</v>
+      </c>
+      <c r="G850" t="s">
+        <v>870</v>
+      </c>
+      <c r="H850">
+        <v>2945.2273920029402</v>
+      </c>
+      <c r="I850">
+        <v>5193.1525650024396</v>
+      </c>
+      <c r="J850">
+        <v>10553.0025500059</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>844</v>
+      </c>
+      <c r="B851">
+        <v>27</v>
+      </c>
+      <c r="C851" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D851">
+        <v>27</v>
+      </c>
+      <c r="E851">
+        <v>6</v>
+      </c>
+      <c r="F851" t="s">
+        <v>4</v>
+      </c>
+      <c r="G851" t="s">
+        <v>871</v>
+      </c>
+      <c r="H851">
+        <v>2617.0664140135</v>
+      </c>
+      <c r="I851">
+        <v>8384.9126650094895</v>
+      </c>
+      <c r="J851">
+        <v>10673.1974180042</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>844</v>
+      </c>
+      <c r="B852">
+        <v>28</v>
+      </c>
+      <c r="C852" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D852">
+        <v>28</v>
+      </c>
+      <c r="E852">
+        <v>3</v>
+      </c>
+      <c r="F852" t="s">
+        <v>5</v>
+      </c>
+      <c r="G852" t="s">
+        <v>872</v>
+      </c>
+      <c r="H852">
+        <v>3497.84062799811</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>844</v>
+      </c>
+      <c r="B853">
+        <v>29</v>
+      </c>
+      <c r="C853" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D853">
+        <v>29</v>
+      </c>
+      <c r="E853">
+        <v>2</v>
+      </c>
+      <c r="F853" t="s">
+        <v>7</v>
+      </c>
+      <c r="G853" t="s">
+        <v>873</v>
+      </c>
+      <c r="H853">
+        <v>2618.4830360114502</v>
+      </c>
+      <c r="I853">
+        <v>10647.820325002</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>844</v>
+      </c>
+      <c r="B854">
+        <v>30</v>
+      </c>
+      <c r="C854" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D854">
+        <v>30</v>
+      </c>
+      <c r="E854">
+        <v>8</v>
+      </c>
+      <c r="F854" t="s">
+        <v>0</v>
+      </c>
+      <c r="G854" t="s">
+        <v>874</v>
+      </c>
+      <c r="H854">
+        <v>5851.1635059863302</v>
+      </c>
+      <c r="I854">
+        <v>8659.1413809955102</v>
+      </c>
+      <c r="J854">
+        <v>9495.8907489925605</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>844</v>
+      </c>
+      <c r="B855">
+        <v>31</v>
+      </c>
+      <c r="C855" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D855">
+        <v>31</v>
+      </c>
+      <c r="E855">
+        <v>7</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1</v>
+      </c>
+      <c r="G855" t="s">
+        <v>875</v>
+      </c>
+      <c r="H855">
+        <v>2836.72722399234</v>
+      </c>
+      <c r="I855">
+        <v>3536.6408229917201</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>844</v>
+      </c>
+      <c r="B856">
+        <v>32</v>
+      </c>
+      <c r="C856" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D856">
+        <v>32</v>
+      </c>
+      <c r="E856">
+        <v>1</v>
+      </c>
+      <c r="F856" t="s">
+        <v>3</v>
+      </c>
+      <c r="G856" t="s">
+        <v>876</v>
+      </c>
+      <c r="H856">
+        <v>2600.9673649966699</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>844</v>
+      </c>
+      <c r="B857">
+        <v>33</v>
+      </c>
+      <c r="C857" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D857">
+        <v>33</v>
+      </c>
+      <c r="E857">
+        <v>4</v>
+      </c>
+      <c r="F857" t="s">
+        <v>6</v>
+      </c>
+      <c r="G857" t="s">
+        <v>877</v>
+      </c>
+      <c r="H857">
+        <v>2651.0763670056999</v>
+      </c>
+      <c r="I857">
+        <v>5067.0894170105403</v>
+      </c>
+      <c r="J857">
+        <v>6875.2042369991505</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>844</v>
+      </c>
+      <c r="B858">
+        <v>34</v>
+      </c>
+      <c r="C858" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D858">
+        <v>34</v>
+      </c>
+      <c r="E858">
+        <v>1</v>
+      </c>
+      <c r="F858" t="s">
+        <v>3</v>
+      </c>
+      <c r="G858" t="s">
+        <v>878</v>
+      </c>
+      <c r="H858">
+        <v>5866.2040489911997</v>
+      </c>
+      <c r="I858">
+        <v>6885.1727429926304</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>844</v>
+      </c>
+      <c r="B859">
+        <v>35</v>
+      </c>
+      <c r="C859" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D859">
+        <v>35</v>
+      </c>
+      <c r="E859">
+        <v>3</v>
+      </c>
+      <c r="F859" t="s">
+        <v>5</v>
+      </c>
+      <c r="G859" t="s">
+        <v>879</v>
+      </c>
+      <c r="H859">
+        <v>4215.0169049948399</v>
+      </c>
+      <c r="I859">
+        <v>5174.8124960064797</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>844</v>
+      </c>
+      <c r="B860">
+        <v>36</v>
+      </c>
+      <c r="C860" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D860">
+        <v>36</v>
+      </c>
+      <c r="E860">
+        <v>7</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1</v>
+      </c>
+      <c r="G860" t="s">
+        <v>880</v>
+      </c>
+      <c r="H860">
+        <v>2629.3565039932701</v>
+      </c>
+      <c r="I860">
+        <v>4277.2320369929002</v>
+      </c>
+      <c r="J860">
+        <v>8317.3353039920294</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>844</v>
+      </c>
+      <c r="B861">
+        <v>37</v>
+      </c>
+      <c r="C861" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D861">
+        <v>37</v>
+      </c>
+      <c r="E861">
+        <v>5</v>
+      </c>
+      <c r="F861" t="s">
+        <v>2</v>
+      </c>
+      <c r="G861" t="s">
+        <v>881</v>
+      </c>
+      <c r="H861">
+        <v>3177.43194599449</v>
+      </c>
+      <c r="I861">
+        <v>9213.7454899996501</v>
+      </c>
+      <c r="J861">
+        <v>10333.674134999501</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>844</v>
+      </c>
+      <c r="B862">
+        <v>38</v>
+      </c>
+      <c r="C862" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D862">
+        <v>38</v>
+      </c>
+      <c r="E862">
+        <v>6</v>
+      </c>
+      <c r="F862" t="s">
+        <v>4</v>
+      </c>
+      <c r="G862" t="s">
+        <v>882</v>
+      </c>
+      <c r="H862">
+        <v>5185.6657540053102</v>
+      </c>
+      <c r="I862">
+        <v>7898.330449</v>
+      </c>
+      <c r="J862">
+        <v>10583.6647430062</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>844</v>
+      </c>
+      <c r="B863">
+        <v>39</v>
+      </c>
+      <c r="C863" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D863">
+        <v>39</v>
+      </c>
+      <c r="E863">
+        <v>2</v>
+      </c>
+      <c r="F863" t="s">
+        <v>7</v>
+      </c>
+      <c r="G863" t="s">
+        <v>883</v>
+      </c>
+      <c r="H863">
+        <v>3428.4061169922302</v>
+      </c>
+      <c r="I863">
+        <v>5063.6867599934303</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>844</v>
+      </c>
+      <c r="B864">
+        <v>40</v>
+      </c>
+      <c r="C864" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D864">
+        <v>40</v>
+      </c>
+      <c r="E864">
+        <v>8</v>
+      </c>
+      <c r="F864" t="s">
+        <v>0</v>
+      </c>
+      <c r="G864" t="s">
+        <v>884</v>
+      </c>
+      <c r="H864">
+        <v>3516.4821009933898</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>844</v>
+      </c>
+      <c r="B865">
+        <v>41</v>
+      </c>
+      <c r="C865" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D865">
+        <v>41</v>
+      </c>
+      <c r="E865">
+        <v>2</v>
+      </c>
+      <c r="F865" t="s">
+        <v>7</v>
+      </c>
+      <c r="G865" t="s">
+        <v>885</v>
+      </c>
+      <c r="H865">
+        <v>4216.8317530006098</v>
+      </c>
+      <c r="I865">
+        <v>8264.8602509945595</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>844</v>
+      </c>
+      <c r="B866">
+        <v>42</v>
+      </c>
+      <c r="C866" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D866">
+        <v>42</v>
+      </c>
+      <c r="E866">
+        <v>6</v>
+      </c>
+      <c r="F866" t="s">
+        <v>4</v>
+      </c>
+      <c r="G866" t="s">
+        <v>886</v>
+      </c>
+      <c r="H866">
+        <v>5148.3133559972002</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>844</v>
+      </c>
+      <c r="B867">
+        <v>1</v>
+      </c>
+      <c r="C867" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867">
+        <v>4</v>
+      </c>
+      <c r="F867" t="s">
+        <v>6</v>
+      </c>
+      <c r="G867" t="s">
+        <v>848</v>
+      </c>
+      <c r="H867">
+        <v>4556.3462769985199</v>
+      </c>
+      <c r="I867">
+        <v>6362.1933079957898</v>
+      </c>
+      <c r="J867">
+        <v>8975.6973370015603</v>
+      </c>
+      <c r="K867">
+        <v>10592.613119006101</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>844</v>
+      </c>
+      <c r="B868">
+        <v>2</v>
+      </c>
+      <c r="C868" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D868">
+        <v>2</v>
+      </c>
+      <c r="E868">
+        <v>1</v>
+      </c>
+      <c r="F868" t="s">
+        <v>3</v>
+      </c>
+      <c r="G868" t="s">
+        <v>846</v>
+      </c>
+      <c r="H868">
+        <v>2560.6207830011799</v>
+      </c>
+      <c r="I868">
+        <v>4243.3714790195199</v>
+      </c>
+      <c r="J868">
+        <v>8088.5786540061199</v>
+      </c>
+      <c r="K868">
+        <v>10208.545617014101</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>844</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+      <c r="C869" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D869">
+        <v>3</v>
+      </c>
+      <c r="E869">
+        <v>2</v>
+      </c>
+      <c r="F869" t="s">
+        <v>7</v>
+      </c>
+      <c r="G869" t="s">
+        <v>847</v>
+      </c>
+      <c r="H869">
+        <v>3477.4247699975899</v>
+      </c>
+      <c r="I869">
+        <v>10503.929332002899</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>844</v>
+      </c>
+      <c r="B870">
+        <v>4</v>
+      </c>
+      <c r="C870" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D870">
+        <v>4</v>
+      </c>
+      <c r="E870">
+        <v>7</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1</v>
+      </c>
+      <c r="G870" t="s">
+        <v>851</v>
+      </c>
+      <c r="H870">
+        <v>2903.2320010066001</v>
+      </c>
+      <c r="I870">
+        <v>4983.1104640066596</v>
+      </c>
+      <c r="J870">
+        <v>8967.1190780103207</v>
+      </c>
+      <c r="K870">
+        <v>10275.0757620185</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>844</v>
+      </c>
+      <c r="B871">
+        <v>5</v>
+      </c>
+      <c r="C871" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D871">
+        <v>5</v>
+      </c>
+      <c r="E871">
+        <v>5</v>
+      </c>
+      <c r="F871" t="s">
+        <v>2</v>
+      </c>
+      <c r="G871" t="s">
+        <v>852</v>
+      </c>
+      <c r="H871">
+        <v>3428.92549799382</v>
+      </c>
+      <c r="I871">
+        <v>4276.8086599856597</v>
+      </c>
+      <c r="J871">
+        <v>6628.9644659906598</v>
+      </c>
+      <c r="K871">
+        <v>9952.0416489988493</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>844</v>
+      </c>
+      <c r="B872">
+        <v>6</v>
+      </c>
+      <c r="C872" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D872">
+        <v>6</v>
+      </c>
+      <c r="E872">
+        <v>3</v>
+      </c>
+      <c r="F872" t="s">
+        <v>5</v>
+      </c>
+      <c r="G872" t="s">
+        <v>849</v>
+      </c>
+      <c r="H872">
+        <v>4922.9541789889299</v>
+      </c>
+      <c r="I872">
+        <v>6450.9584559947198</v>
+      </c>
+      <c r="J872">
+        <v>10010.9317419976</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>844</v>
+      </c>
+      <c r="B873">
+        <v>7</v>
+      </c>
+      <c r="C873" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D873">
+        <v>7</v>
+      </c>
+      <c r="E873">
+        <v>8</v>
+      </c>
+      <c r="F873" t="s">
+        <v>0</v>
+      </c>
+      <c r="G873" t="s">
+        <v>850</v>
+      </c>
+      <c r="H873">
+        <v>6603.3084270059999</v>
+      </c>
+      <c r="I873">
+        <v>7515.3010340034898</v>
+      </c>
+      <c r="J873">
+        <v>9935.1861589998007</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>844</v>
+      </c>
+      <c r="B874">
+        <v>8</v>
+      </c>
+      <c r="C874" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D874">
+        <v>8</v>
+      </c>
+      <c r="E874">
+        <v>6</v>
+      </c>
+      <c r="F874" t="s">
+        <v>4</v>
+      </c>
+      <c r="G874" t="s">
+        <v>845</v>
+      </c>
+      <c r="H874">
+        <v>2703.18988998234</v>
+      </c>
+      <c r="I874">
+        <v>6111.2557029873096</v>
+      </c>
+      <c r="J874">
+        <v>9017.1595449894594</v>
+      </c>
+      <c r="K874">
+        <v>10783.1163519769</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>844</v>
+      </c>
+      <c r="B875">
+        <v>9</v>
+      </c>
+      <c r="C875" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D875">
+        <v>9</v>
+      </c>
+      <c r="E875">
+        <v>2</v>
+      </c>
+      <c r="F875" t="s">
+        <v>7</v>
+      </c>
+      <c r="G875" t="s">
+        <v>855</v>
+      </c>
+      <c r="H875">
+        <v>2529.0694620013201</v>
+      </c>
+      <c r="I875">
+        <v>4701.8679720014297</v>
+      </c>
+      <c r="J875">
+        <v>6617.8056899905196</v>
+      </c>
+      <c r="K875">
+        <v>8297.4431100040601</v>
+      </c>
+      <c r="L875">
+        <v>10620.1560049951</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>844</v>
+      </c>
+      <c r="B876">
+        <v>10</v>
+      </c>
+      <c r="C876" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D876">
+        <v>10</v>
+      </c>
+      <c r="E876">
+        <v>3</v>
+      </c>
+      <c r="F876" t="s">
+        <v>5</v>
+      </c>
+      <c r="G876" t="s">
+        <v>857</v>
+      </c>
+      <c r="H876">
+        <v>5719.4520860016301</v>
+      </c>
+      <c r="I876">
+        <v>8199.3560920059608</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>844</v>
+      </c>
+      <c r="B877">
+        <v>11</v>
+      </c>
+      <c r="C877" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D877">
+        <v>11</v>
+      </c>
+      <c r="E877">
+        <v>6</v>
+      </c>
+      <c r="F877" t="s">
+        <v>4</v>
+      </c>
+      <c r="G877" t="s">
+        <v>856</v>
+      </c>
+      <c r="H877">
+        <v>2954.07615099847</v>
+      </c>
+      <c r="I877">
+        <v>5035.3840159922802</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>844</v>
+      </c>
+      <c r="B878">
+        <v>12</v>
+      </c>
+      <c r="C878" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D878">
+        <v>12</v>
+      </c>
+      <c r="E878">
+        <v>4</v>
+      </c>
+      <c r="F878" t="s">
+        <v>6</v>
+      </c>
+      <c r="G878" t="s">
+        <v>859</v>
+      </c>
+      <c r="H878">
+        <v>4230.1916000097899</v>
+      </c>
+      <c r="I878">
+        <v>8166.1773350089697</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>844</v>
+      </c>
+      <c r="B879">
+        <v>13</v>
+      </c>
+      <c r="C879" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D879">
+        <v>13</v>
+      </c>
+      <c r="E879">
+        <v>5</v>
+      </c>
+      <c r="F879" t="s">
+        <v>2</v>
+      </c>
+      <c r="G879" t="s">
+        <v>860</v>
+      </c>
+      <c r="H879">
+        <v>2592.4564149975699</v>
+      </c>
+      <c r="I879">
+        <v>4224.6548539996102</v>
+      </c>
+      <c r="J879">
+        <v>7417.9164630025598</v>
+      </c>
+      <c r="K879">
+        <v>10656.6536429971</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>844</v>
+      </c>
+      <c r="B880">
+        <v>14</v>
+      </c>
+      <c r="C880" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D880">
+        <v>14</v>
+      </c>
+      <c r="E880">
+        <v>1</v>
+      </c>
+      <c r="F880" t="s">
+        <v>3</v>
+      </c>
+      <c r="G880" t="s">
+        <v>858</v>
+      </c>
+      <c r="H880">
+        <v>2517.1617129892102</v>
+      </c>
+      <c r="I880">
+        <v>4973.1215019971096</v>
+      </c>
+      <c r="J880">
+        <v>10565.155995994801</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>844</v>
+      </c>
+      <c r="B881">
+        <v>15</v>
+      </c>
+      <c r="C881" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D881">
+        <v>15</v>
+      </c>
+      <c r="E881">
+        <v>7</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1</v>
+      </c>
+      <c r="G881" t="s">
+        <v>853</v>
+      </c>
+      <c r="H881">
+        <v>7455.96262399852</v>
+      </c>
+      <c r="I881">
+        <v>9063.3452190011703</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>844</v>
+      </c>
+      <c r="B882">
+        <v>16</v>
+      </c>
+      <c r="C882" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D882">
+        <v>16</v>
+      </c>
+      <c r="E882">
+        <v>8</v>
+      </c>
+      <c r="F882" t="s">
+        <v>0</v>
+      </c>
+      <c r="G882" t="s">
+        <v>854</v>
+      </c>
+      <c r="H882">
+        <v>4264.0359070002996</v>
+      </c>
+      <c r="I882">
+        <v>7528.1544490009501</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>844</v>
+      </c>
+      <c r="B883">
+        <v>17</v>
+      </c>
+      <c r="C883" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D883">
+        <v>17</v>
+      </c>
+      <c r="E883">
+        <v>7</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1</v>
+      </c>
+      <c r="G883" t="s">
+        <v>861</v>
+      </c>
+      <c r="H883">
+        <v>2842.7448670119002</v>
+      </c>
+      <c r="I883">
+        <v>8882.5863060057109</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>844</v>
+      </c>
+      <c r="B884">
+        <v>18</v>
+      </c>
+      <c r="C884" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D884">
+        <v>18</v>
+      </c>
+      <c r="E884">
+        <v>1</v>
+      </c>
+      <c r="F884" t="s">
+        <v>3</v>
+      </c>
+      <c r="G884" t="s">
+        <v>862</v>
+      </c>
+      <c r="H884">
+        <v>2734.0949060022799</v>
+      </c>
+      <c r="I884">
+        <v>8218.9745220094901</v>
+      </c>
+      <c r="J884">
+        <v>9981.6291539967006</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>844</v>
+      </c>
+      <c r="B885">
+        <v>19</v>
+      </c>
+      <c r="C885" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D885">
+        <v>19</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+      <c r="F885" t="s">
+        <v>5</v>
+      </c>
+      <c r="G885" t="s">
+        <v>866</v>
+      </c>
+      <c r="H885">
+        <v>4226.5347140133299</v>
+      </c>
+      <c r="I885">
+        <v>9810.3887830078602</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>844</v>
+      </c>
+      <c r="B886">
+        <v>20</v>
+      </c>
+      <c r="C886" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D886">
+        <v>20</v>
+      </c>
+      <c r="E886">
+        <v>5</v>
+      </c>
+      <c r="F886" t="s">
+        <v>2</v>
+      </c>
+      <c r="G886" t="s">
+        <v>864</v>
+      </c>
+      <c r="H886">
+        <v>3258.1038749814002</v>
+      </c>
+      <c r="I886">
+        <v>4459.7593359798102</v>
+      </c>
+      <c r="J886">
+        <v>9058.0440949946606</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>844</v>
+      </c>
+      <c r="B887">
+        <v>21</v>
+      </c>
+      <c r="C887" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D887">
+        <v>21</v>
+      </c>
+      <c r="E887">
+        <v>4</v>
+      </c>
+      <c r="F887" t="s">
+        <v>6</v>
+      </c>
+      <c r="G887" t="s">
+        <v>867</v>
+      </c>
+      <c r="H887">
+        <v>2709.96905700862</v>
+      </c>
+      <c r="I887">
+        <v>8309.8390859961492</v>
+      </c>
+    </row>
+    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>844</v>
+      </c>
+      <c r="B888">
+        <v>22</v>
+      </c>
+      <c r="C888" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D888">
+        <v>22</v>
+      </c>
+      <c r="E888">
+        <v>2</v>
+      </c>
+      <c r="F888" t="s">
+        <v>7</v>
+      </c>
+      <c r="G888" t="s">
+        <v>863</v>
+      </c>
+      <c r="H888">
+        <v>2615.15456299483</v>
+      </c>
+      <c r="I888">
+        <v>5759.2267300039503</v>
+      </c>
+      <c r="J888">
+        <v>6879.2310749888402</v>
+      </c>
+    </row>
+    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>844</v>
+      </c>
+      <c r="B889">
+        <v>23</v>
+      </c>
+      <c r="C889" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D889">
+        <v>23</v>
+      </c>
+      <c r="E889">
+        <v>6</v>
+      </c>
+      <c r="F889" t="s">
+        <v>4</v>
+      </c>
+      <c r="G889" t="s">
+        <v>868</v>
+      </c>
+      <c r="H889">
+        <v>2892.7168329954102</v>
+      </c>
+      <c r="I889">
+        <v>4560.54584099352</v>
+      </c>
+      <c r="J889">
+        <v>10768.870666995599</v>
+      </c>
+    </row>
+    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>844</v>
+      </c>
+      <c r="B890">
+        <v>24</v>
+      </c>
+      <c r="C890" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D890">
+        <v>24</v>
+      </c>
+      <c r="E890">
+        <v>8</v>
+      </c>
+      <c r="F890" t="s">
+        <v>0</v>
+      </c>
+      <c r="G890" t="s">
+        <v>865</v>
+      </c>
+      <c r="H890">
+        <v>2557.0752630084698</v>
+      </c>
+      <c r="I890">
+        <v>5133.4943940043404</v>
+      </c>
+      <c r="J890">
+        <v>10933.0666020065</v>
+      </c>
+    </row>
+    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>844</v>
+      </c>
+      <c r="B891">
+        <v>25</v>
+      </c>
+      <c r="C891" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D891">
+        <v>25</v>
+      </c>
+      <c r="E891">
+        <v>5</v>
+      </c>
+      <c r="F891" t="s">
+        <v>2</v>
+      </c>
+      <c r="G891" t="s">
+        <v>870</v>
+      </c>
+      <c r="H891">
+        <v>3006.3234850168201</v>
+      </c>
+      <c r="I891">
+        <v>6086.2828810065903</v>
+      </c>
+      <c r="J891">
+        <v>10561.1770649999</v>
+      </c>
+    </row>
+    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>844</v>
+      </c>
+      <c r="B892">
+        <v>26</v>
+      </c>
+      <c r="C892" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D892">
+        <v>26</v>
+      </c>
+      <c r="E892">
+        <v>7</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1</v>
+      </c>
+      <c r="G892" t="s">
+        <v>875</v>
+      </c>
+      <c r="H892">
+        <v>2891.3764680027898</v>
+      </c>
+      <c r="I892">
+        <v>5827.1632040143004</v>
+      </c>
+      <c r="J892">
+        <v>7764.3493200093499</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>844</v>
+      </c>
+      <c r="B893">
+        <v>27</v>
+      </c>
+      <c r="C893" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D893">
+        <v>27</v>
+      </c>
+      <c r="E893">
+        <v>6</v>
+      </c>
+      <c r="F893" t="s">
+        <v>4</v>
+      </c>
+      <c r="G893" t="s">
+        <v>871</v>
+      </c>
+      <c r="H893">
+        <v>2561.13930800557</v>
+      </c>
+      <c r="I893">
+        <v>5833.6809270083904</v>
+      </c>
+      <c r="J893">
+        <v>7931.1262049973002</v>
+      </c>
+      <c r="K893">
+        <v>10681.130571007699</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>844</v>
+      </c>
+      <c r="B894">
+        <v>28</v>
+      </c>
+      <c r="C894" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D894">
+        <v>28</v>
+      </c>
+      <c r="E894">
+        <v>4</v>
+      </c>
+      <c r="F894" t="s">
+        <v>6</v>
+      </c>
+      <c r="G894" t="s">
+        <v>869</v>
+      </c>
+      <c r="H894">
+        <v>2644.8666269928199</v>
+      </c>
+      <c r="I894">
+        <v>4148.8754329979402</v>
+      </c>
+      <c r="J894">
+        <v>9381.5407219976096</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>844</v>
+      </c>
+      <c r="B895">
+        <v>29</v>
+      </c>
+      <c r="C895" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D895">
+        <v>29</v>
+      </c>
+      <c r="E895">
+        <v>1</v>
+      </c>
+      <c r="F895" t="s">
+        <v>3</v>
+      </c>
+      <c r="G895" t="s">
+        <v>876</v>
+      </c>
+      <c r="H895">
+        <v>2529.1449489891502</v>
+      </c>
+      <c r="I895">
+        <v>4657.1112149953797</v>
+      </c>
+      <c r="J895">
+        <v>6201.0676929950696</v>
+      </c>
+    </row>
+    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>844</v>
+      </c>
+      <c r="B896">
+        <v>30</v>
+      </c>
+      <c r="C896" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D896">
+        <v>30</v>
+      </c>
+      <c r="E896">
+        <v>2</v>
+      </c>
+      <c r="F896" t="s">
+        <v>7</v>
+      </c>
+      <c r="G896" t="s">
+        <v>873</v>
+      </c>
+      <c r="H896">
+        <v>3112.0276080071899</v>
+      </c>
+      <c r="I896">
+        <v>9904.1045480221492</v>
+      </c>
+    </row>
+    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>844</v>
+      </c>
+      <c r="B897">
+        <v>31</v>
+      </c>
+      <c r="C897" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D897">
+        <v>31</v>
+      </c>
+      <c r="E897">
+        <v>3</v>
+      </c>
+      <c r="F897" t="s">
+        <v>5</v>
+      </c>
+      <c r="G897" t="s">
+        <v>872</v>
+      </c>
+      <c r="H897">
+        <v>2476.63520398736</v>
+      </c>
+      <c r="I897">
+        <v>4248.1714859753802</v>
+      </c>
+      <c r="J897">
+        <v>8689.3350569754803</v>
+      </c>
+      <c r="K897">
+        <v>10048.3428119868</v>
+      </c>
+    </row>
+    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>844</v>
+      </c>
+      <c r="B898">
+        <v>32</v>
+      </c>
+      <c r="C898" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D898">
+        <v>32</v>
+      </c>
+      <c r="E898">
+        <v>8</v>
+      </c>
+      <c r="F898" t="s">
+        <v>0</v>
+      </c>
+      <c r="G898" t="s">
+        <v>874</v>
+      </c>
+      <c r="H898">
+        <v>4913.4055230021404</v>
+      </c>
+      <c r="I898">
+        <v>8553.3662810027599</v>
+      </c>
+      <c r="J898">
+        <v>9745.3894890099691</v>
+      </c>
+    </row>
+    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>844</v>
+      </c>
+      <c r="B899">
+        <v>33</v>
+      </c>
+      <c r="C899" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D899">
+        <v>33</v>
+      </c>
+      <c r="E899">
+        <v>4</v>
+      </c>
+      <c r="F899" t="s">
+        <v>6</v>
+      </c>
+      <c r="G899" t="s">
+        <v>877</v>
+      </c>
+      <c r="H899">
+        <v>3408.6097469925799</v>
+      </c>
+      <c r="I899">
+        <v>6360.6082059890005</v>
+      </c>
+    </row>
+    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>844</v>
+      </c>
+      <c r="B900">
+        <v>34</v>
+      </c>
+      <c r="C900" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D900">
+        <v>34</v>
+      </c>
+      <c r="E900">
+        <v>6</v>
+      </c>
+      <c r="F900" t="s">
+        <v>4</v>
+      </c>
+      <c r="G900" t="s">
+        <v>882</v>
+      </c>
+      <c r="H900">
+        <v>4160.47777199745</v>
+      </c>
+      <c r="I900">
+        <v>5216.3386619985104</v>
+      </c>
+      <c r="J900">
+        <v>8016.4285430014097</v>
+      </c>
+    </row>
+    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>844</v>
+      </c>
+      <c r="B901">
+        <v>35</v>
+      </c>
+      <c r="C901" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D901">
+        <v>35</v>
+      </c>
+      <c r="E901">
+        <v>8</v>
+      </c>
+      <c r="F901" t="s">
+        <v>0</v>
+      </c>
+      <c r="G901" t="s">
+        <v>884</v>
+      </c>
+      <c r="H901">
+        <v>4364.82377700507</v>
+      </c>
+      <c r="I901">
+        <v>7765.0253450125401</v>
+      </c>
+    </row>
+    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>844</v>
+      </c>
+      <c r="B902">
+        <v>36</v>
+      </c>
+      <c r="C902" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D902">
+        <v>36</v>
+      </c>
+      <c r="E902">
+        <v>1</v>
+      </c>
+      <c r="F902" t="s">
+        <v>3</v>
+      </c>
+      <c r="G902" t="s">
+        <v>878</v>
+      </c>
+      <c r="H902">
+        <v>4926.7202049940797</v>
+      </c>
+      <c r="I902">
+        <v>6126.6806899905196</v>
+      </c>
+      <c r="J902">
+        <v>10951.561467990199</v>
+      </c>
+    </row>
+    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>844</v>
+      </c>
+      <c r="B903">
+        <v>37</v>
+      </c>
+      <c r="C903" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D903">
+        <v>37</v>
+      </c>
+      <c r="E903">
+        <v>3</v>
+      </c>
+      <c r="F903" t="s">
+        <v>5</v>
+      </c>
+      <c r="G903" t="s">
+        <v>879</v>
+      </c>
+      <c r="H903">
+        <v>3900.2221899926599</v>
+      </c>
+      <c r="I903">
+        <v>5252.4447879940199</v>
+      </c>
+      <c r="J903">
+        <v>8860.4273969978094</v>
+      </c>
+    </row>
+    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>844</v>
+      </c>
+      <c r="B904">
+        <v>38</v>
+      </c>
+      <c r="C904" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D904">
+        <v>38</v>
+      </c>
+      <c r="E904">
+        <v>7</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1</v>
+      </c>
+      <c r="G904" t="s">
+        <v>880</v>
+      </c>
+      <c r="H904">
+        <v>2605.0950110107601</v>
+      </c>
+      <c r="I904">
+        <v>4181.2043009996396</v>
+      </c>
+      <c r="J904">
+        <v>8129.53628601133</v>
+      </c>
+    </row>
+    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>844</v>
+      </c>
+      <c r="B905">
+        <v>39</v>
+      </c>
+      <c r="C905" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D905">
+        <v>39</v>
+      </c>
+      <c r="E905">
+        <v>2</v>
+      </c>
+      <c r="F905" t="s">
+        <v>7</v>
+      </c>
+      <c r="G905" t="s">
+        <v>883</v>
+      </c>
+      <c r="H905">
+        <v>3377.5125810056902</v>
+      </c>
+      <c r="I905">
+        <v>7535.83361500501</v>
+      </c>
+    </row>
+    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>844</v>
+      </c>
+      <c r="B906">
+        <v>40</v>
+      </c>
+      <c r="C906" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D906">
+        <v>40</v>
+      </c>
+      <c r="E906">
+        <v>5</v>
+      </c>
+      <c r="F906" t="s">
+        <v>2</v>
+      </c>
+      <c r="G906" t="s">
+        <v>881</v>
+      </c>
+      <c r="H906">
+        <v>2908.0574090033701</v>
+      </c>
+      <c r="I906">
+        <v>4382.4457529932197</v>
+      </c>
+      <c r="J906">
+        <v>8885.8548869937604</v>
+      </c>
+    </row>
+    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>844</v>
+      </c>
+      <c r="B907">
+        <v>41</v>
+      </c>
+      <c r="C907" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D907">
+        <v>41</v>
+      </c>
+      <c r="E907">
+        <v>2</v>
+      </c>
+      <c r="F907" t="s">
+        <v>7</v>
+      </c>
+      <c r="G907" t="s">
+        <v>885</v>
+      </c>
+      <c r="H907">
+        <v>4148.4684029966502</v>
+      </c>
+      <c r="I907">
+        <v>6617.2033660113802</v>
+      </c>
+      <c r="J907">
+        <v>9848.9348330050707</v>
+      </c>
+    </row>
+    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>844</v>
+      </c>
+      <c r="B908">
+        <v>42</v>
+      </c>
+      <c r="C908" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D908">
+        <v>42</v>
+      </c>
+      <c r="E908">
+        <v>5</v>
+      </c>
+      <c r="F908" t="s">
+        <v>2</v>
+      </c>
+      <c r="G908" t="s">
+        <v>887</v>
+      </c>
+      <c r="H908">
+        <v>6040.8780190050602</v>
+      </c>
+      <c r="I908">
+        <v>8320.9120489954894</v>
+      </c>
+    </row>
+    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>844</v>
+      </c>
+      <c r="B909">
+        <v>43</v>
+      </c>
+      <c r="C909" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D909">
+        <v>43</v>
+      </c>
+      <c r="E909">
+        <v>1</v>
+      </c>
+      <c r="F909" t="s">
+        <v>3</v>
+      </c>
+      <c r="G909" t="s">
+        <v>888</v>
+      </c>
+      <c r="H909">
+        <v>4119.6923539936497</v>
+      </c>
+      <c r="I909">
+        <v>6732.4851049929803</v>
+      </c>
+      <c r="J909">
+        <v>8276.5108049958908</v>
+      </c>
+      <c r="K909">
+        <v>11143.562905997</v>
+      </c>
+    </row>
+    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>844</v>
+      </c>
+      <c r="B910">
+        <v>44</v>
+      </c>
+      <c r="C910" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D910">
+        <v>44</v>
+      </c>
+      <c r="E910">
+        <v>4</v>
+      </c>
+      <c r="F910" t="s">
+        <v>6</v>
+      </c>
+      <c r="G910" t="s">
+        <v>889</v>
+      </c>
+      <c r="H910">
+        <v>3372.80742199718</v>
+      </c>
+      <c r="I910">
+        <v>6564.7390960007897</v>
+      </c>
+      <c r="J910">
+        <v>9312.9246830046104</v>
+      </c>
+      <c r="K910">
+        <v>11302.3642449975</v>
+      </c>
+    </row>
+    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>844</v>
+      </c>
+      <c r="B911">
+        <v>45</v>
+      </c>
+      <c r="C911" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D911">
+        <v>45</v>
+      </c>
+      <c r="E911">
+        <v>3</v>
+      </c>
+      <c r="F911" t="s">
+        <v>5</v>
+      </c>
+      <c r="G911" t="s">
+        <v>890</v>
+      </c>
+      <c r="H911">
+        <v>3352.4887920022002</v>
+      </c>
+      <c r="I911">
+        <v>5116.2262110114098</v>
+      </c>
+    </row>
+    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>844</v>
+      </c>
+      <c r="B912">
+        <v>46</v>
+      </c>
+      <c r="C912" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D912">
+        <v>46</v>
+      </c>
+      <c r="E912">
+        <v>8</v>
+      </c>
+      <c r="F912" t="s">
+        <v>0</v>
+      </c>
+      <c r="G912" t="s">
+        <v>891</v>
+      </c>
+      <c r="H912">
+        <v>2573.3394220024302</v>
+      </c>
+      <c r="I912">
+        <v>5185.26885199546</v>
+      </c>
+    </row>
+    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>844</v>
+      </c>
+      <c r="B913">
+        <v>47</v>
+      </c>
+      <c r="C913" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D913">
+        <v>47</v>
+      </c>
+      <c r="E913">
+        <v>6</v>
+      </c>
+      <c r="F913" t="s">
+        <v>4</v>
+      </c>
+      <c r="G913" t="s">
+        <v>886</v>
+      </c>
+      <c r="H913">
+        <v>4988.5765340030102</v>
+      </c>
+      <c r="I913">
+        <v>10204.546709001001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>844</v>
+      </c>
+      <c r="B914">
+        <v>48</v>
+      </c>
+      <c r="C914" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D914">
+        <v>48</v>
+      </c>
+      <c r="E914">
+        <v>7</v>
+      </c>
+      <c r="F914" t="s">
+        <v>1</v>
+      </c>
+      <c r="G914" t="s">
+        <v>892</v>
+      </c>
+      <c r="H914">
+        <v>4097.05591000616</v>
+      </c>
+      <c r="I914">
+        <v>9321.0893249958699</v>
+      </c>
+    </row>
+    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>844</v>
+      </c>
+      <c r="B915">
+        <v>49</v>
+      </c>
+      <c r="C915" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D915">
+        <v>49</v>
+      </c>
+      <c r="E915">
+        <v>1</v>
+      </c>
+      <c r="F915" t="s">
+        <v>3</v>
+      </c>
+      <c r="G915" t="s">
+        <v>893</v>
+      </c>
+      <c r="H915">
+        <v>3339.9808180183099</v>
+      </c>
+      <c r="I915">
+        <v>4723.9206830114099</v>
+      </c>
+      <c r="J915">
+        <v>7985.0107360184102</v>
+      </c>
+      <c r="K915">
+        <v>9203.8628770112991</v>
       </c>
     </row>
   </sheetData>
